--- a/graph_edgelist.xlsx
+++ b/graph_edgelist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B486"/>
+  <dimension ref="A1:B487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,19 +513,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BASES MATEMATICAS</t>
+          <t>OPTICA E RELATIVIDADE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GEOMETRIA ANALITICA</t>
+          <t>ALGEBRA LINEAR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OPTICA E RELATIVIDADE</t>
+          <t>ALGEBRA LINEAR AVANCADA</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ALGEBRA LINEAR AVANCADA</t>
+          <t>ANALISE DE REGRESSAO</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ANALISE DE REGRESSAO</t>
+          <t>ANALISE NO RN I</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ANALISE NO RN I</t>
+          <t>APROXIMACAO TEORICA E NUMERICA I</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>APROXIMACAO TEORICA E NUMERICA I</t>
+          <t>MECANICA QUANTICA I</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MECANICA QUANTICA I</t>
+          <t>OTIMIZACAO LINEAR</t>
         </is>
       </c>
     </row>
@@ -597,19 +597,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OTIMIZACAO LINEAR</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ALGEBRA LINEAR</t>
+          <t>ALGEBRA LINEAR AVANCADA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>ANALISE NO RN II</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MATEMATICA DISCRETA</t>
+          <t>EQUACOES DIFERENCIAIS ORDINARIAS</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ANALISE NO RN II</t>
+          <t>GEOMETRIA DIFERENCIAL</t>
         </is>
       </c>
     </row>
@@ -645,31 +645,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EQUACOES DIFERENCIAIS ORDINARIAS</t>
+          <t>TEORIA DE CORPOS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>MATEMATICA DISCRETA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>ALGEBRA LINEAR AVANCADA</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>GEOMETRIA DIFERENCIAL</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ALGEBRA LINEAR AVANCADA</t>
+          <t>MATEMATICA DISCRETA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TEORIA DE CORPOS</t>
+          <t>CALCULO DE PROBABILIDADE</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CALCULO DE PROBABILIDADE</t>
+          <t>NUMEROS REAIS E SEQUENCIAS</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FUNCOES DE UMA VARIAVEL</t>
+          <t>OTIMIZACAO LINEAR</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NUMEROS REAIS E SEQUENCIAS</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
@@ -717,31 +717,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>OTIMIZACAO LINEAR</t>
+          <t>TEORIA ARITMETICA DOS NUMEROS</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MATEMATICA DISCRETA</t>
+          <t>PROGRAMACAO ESTRUTURADA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>ALGORITMOS E ESTRUTURA DE DADOS I</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MATEMATICA DISCRETA</t>
+          <t>PROGRAMACAO ESTRUTURADA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TEORIA ARITMETICA DOS NUMEROS</t>
+          <t>ALGORITMOS E ESTRUTURAS DE DADOS I</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ALGORITMOS E ESTRUTURA DE DADOS I</t>
+          <t>ALGORITMOS E ESTRUTURAS DE DADOS II</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ALGORITMOS E ESTRUTURAS DE DADOS I</t>
+          <t>ALGORITMOS EM GRAFOS</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ALGORITMOS E ESTRUTURAS DE DADOS II</t>
+          <t>ANALISE DE ALGORITMOS I</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ALGORITMOS EM GRAFOS</t>
+          <t>ANALISE DE ALGORITMOS II</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS I</t>
+          <t>ARQUITETURA DE COMPUTADORES</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS II</t>
+          <t>COMPUTACAO GRAFICA</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ARQUITETURA DE COMPUTADORES</t>
+          <t>ENGENHARIA DE SOFTWARE</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COMPUTACAO GRAFICA</t>
+          <t>INTELIGENCIA ARTIFICIAL</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ENGENHARIA DE SOFTWARE</t>
+          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>INTELIGENCIA ARTIFICIAL</t>
+          <t>MODELAGEM DE BANCO DE DADOS</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
+          <t>PROGRAMACAO FUNCIONAL</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MODELAGEM DE BANCO DE DADOS</t>
+          <t>PROGRAMACAO ORIENTADA A OBJETOS</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROCESSAMENTO DA INFORMACAO</t>
+          <t>REDES DE COMPUTADORES</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROGRAMACAO FUNCIONAL</t>
+          <t>SEGURANCA DE DADOS</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PROGRAMACAO ORIENTADA A OBJETOS</t>
+          <t>SISTEMAS DISTRIBUIDOS</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>REDES DE COMPUTADORES</t>
+          <t>SISTEMAS OPERACIONAIS</t>
         </is>
       </c>
     </row>
@@ -945,79 +945,79 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SEGURANCA DE DADOS</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PROGRAMACAO ESTRUTURADA</t>
+          <t>ALGORITMOS E ESTRUTURA DE DADOS I</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SISTEMAS DISTRIBUIDOS</t>
+          <t>COMPUTACAO GRAFICA</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PROGRAMACAO ESTRUTURADA</t>
+          <t>ALGORITMOS E ESTRUTURA DE DADOS I</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SISTEMAS OPERACIONAIS</t>
+          <t>PROGRAMACAO FUNCIONAL</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PROGRAMACAO ESTRUTURADA</t>
+          <t>PROCESSAMENTO DA INFORMACAO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>ALGORITMOS E ESTRUTURA DE DADOS I</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ALGORITMOS E ESTRUTURA DE DADOS I</t>
+          <t>PROCESSAMENTO DA INFORMACAO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PROCESSAMENTO DA INFORMACAO</t>
+          <t>ALGORITMOS E ESTRUTURAS DE DADOS I</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ALGORITMOS E ESTRUTURA DE DADOS I</t>
+          <t>PROCESSAMENTO DA INFORMACAO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COMPUTACAO GRAFICA</t>
+          <t>ALGORITMOS E ESTRUTURAS DE DADOS II</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ALGORITMOS E ESTRUTURA DE DADOS I</t>
+          <t>PROCESSAMENTO DA INFORMACAO</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PROGRAMACAO FUNCIONAL</t>
+          <t>ANALISE DE ALGORITMOS I</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ALGORITMOS E ESTRUTURAS DE DADOS I</t>
+          <t>ANALISE DE ALGORITMOS II</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ALGORITMOS E ESTRUTURAS DE DADOS II</t>
+          <t>APROXIMACAO TEORICA E NUMERICA I</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS I</t>
+          <t>ARQUITETURA DE COMPUTADORES</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS II</t>
+          <t>CALCULO NUMERICO</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>APROXIMACAO TEORICA E NUMERICA I</t>
+          <t>COMPUTACAO GRAFICA</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ARQUITETURA DE COMPUTADORES</t>
+          <t>COMUNICACAO E REDES</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CALCULO NUMERICO</t>
+          <t>ENGENHARIA DE SOFTWARE</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COMPUTACAO GRAFICA</t>
+          <t>INTELIGENCIA ARTIFICIAL</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>COMUNICACAO E REDES</t>
+          <t>INTERACAO HUMANO-COMPUTADOR</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ENGENHARIA DE SOFTWARE</t>
+          <t>MODELAGEM DE BANCO DE DADOS</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>INTELIGENCIA ARTIFICIAL</t>
+          <t>OTIMIZACAO LINEAR</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>INTERACAO HUMANO-COMPUTADOR</t>
+          <t>PROCESSAMENTO DE SINAIS NEURAIS</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MODELAGEM DE BANCO DE DADOS</t>
+          <t>PROGRAMACAO ESTRUTURADA</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>OTIMIZACAO LINEAR</t>
+          <t>PROGRAMACAO FUNCIONAL</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BASES COMPUTACIONAIS DA CIENCIA</t>
+          <t>PROGRAMACAO ORIENTADA A OBJETOS</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PROCESSAMENTO DE SINAIS NEURAIS</t>
+          <t>REDES DE COMPUTADORES</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PROGRAMACAO FUNCIONAL</t>
+          <t>SEGURANCA DE DADOS</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PROGRAMACAO ORIENTADA A OBJETOS</t>
+          <t>SISTEMAS DISTRIBUIDOS</t>
         </is>
       </c>
     </row>
@@ -1245,43 +1245,43 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>REDES DE COMPUTADORES</t>
+          <t>SISTEMAS OPERACIONAIS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PROCESSAMENTO DA INFORMACAO</t>
+          <t>ALGORITMOS E ESTRUTURAS DE DADOS I</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SEGURANCA DE DADOS</t>
+          <t>ALGORITMOS E ESTRUTURAS DE DADOS II</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PROCESSAMENTO DA INFORMACAO</t>
+          <t>ALGORITMOS E ESTRUTURAS DE DADOS I</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SISTEMAS DISTRIBUIDOS</t>
+          <t>ALGORITMOS EM GRAFOS</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PROCESSAMENTO DA INFORMACAO</t>
+          <t>ALGORITMOS E ESTRUTURAS DE DADOS I</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SISTEMAS OPERACIONAIS</t>
+          <t>ANALISE DE ALGORITMOS I</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ALGORITMOS E ESTRUTURAS DE DADOS II</t>
+          <t>ANALISE DE ALGORITMOS II</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ALGORITMOS EM GRAFOS</t>
+          <t>ARQUITETURA DE COMPUTADORES</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS I</t>
+          <t>COMPILADORES E INTERPRETADORES</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS II</t>
+          <t>INTELIGENCIA ARTIFICIAL</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ARQUITETURA DE COMPUTADORES</t>
+          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>COMPILADORES E INTERPRETADORES</t>
+          <t>SISTEMAS DISTRIBUIDOS</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>INTELIGENCIA ARTIFICIAL</t>
+          <t>SISTEMAS OPERACIONAIS</t>
         </is>
       </c>
     </row>
@@ -1377,43 +1377,43 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ALGORITMOS E ESTRUTURAS DE DADOS I</t>
+          <t>ALGORITMOS E ESTRUTURAS DE DADOS II</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SISTEMAS DISTRIBUIDOS</t>
+          <t>ALGORITMOS EM GRAFOS</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ALGORITMOS E ESTRUTURAS DE DADOS I</t>
+          <t>ALGORITMOS E ESTRUTURAS DE DADOS II</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SISTEMAS OPERACIONAIS</t>
+          <t>ANALISE DE ALGORITMOS I</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ALGORITMOS E ESTRUTURAS DE DADOS I</t>
+          <t>ALGORITMOS E ESTRUTURAS DE DADOS II</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>ANALISE DE ALGORITMOS II</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ALGORITMOS EM GRAFOS</t>
+          <t>COMPILADORES E INTERPRETADORES</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS I</t>
+          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS II</t>
+          <t>SISTEMAS DISTRIBUIDOS</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>COMPILADORES E INTERPRETADORES</t>
+          <t>SISTEMAS OPERACIONAIS</t>
         </is>
       </c>
     </row>
@@ -1473,43 +1473,43 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ALGORITMOS E ESTRUTURAS DE DADOS II</t>
+          <t>NATUREZA DA INFORMACAO</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SISTEMAS DISTRIBUIDOS</t>
+          <t>ALGORITMOS EM GRAFOS</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ALGORITMOS E ESTRUTURAS DE DADOS II</t>
+          <t>NATUREZA DA INFORMACAO</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SISTEMAS OPERACIONAIS</t>
+          <t>ARQUITETURA DE COMPUTADORES</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ALGORITMOS E ESTRUTURAS DE DADOS II</t>
+          <t>NATUREZA DA INFORMACAO</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>CIRCUITOS DIGITAIS</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ALGORITMOS EM GRAFOS</t>
+          <t>NEUROCIENCIA TEORICA E COMPUTACIONAL</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ARQUITETURA DE COMPUTADORES</t>
+          <t>SISTEMAS DIGITAIS</t>
         </is>
       </c>
     </row>
@@ -1545,55 +1545,55 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CIRCUITOS DIGITAIS</t>
+          <t>SISTEMAS OPERACIONAIS</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>NATUREZA DA INFORMACAO</t>
+          <t>ALGORITMOS EM GRAFOS</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BASES COMPUTACIONAIS DA CIENCIA</t>
+          <t>ANALISE DE ALGORITMOS I</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>NATUREZA DA INFORMACAO</t>
+          <t>ALGORITMOS EM GRAFOS</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NEUROCIENCIA TEORICA E COMPUTACIONAL</t>
+          <t>ANALISE DE ALGORITMOS II</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NATUREZA DA INFORMACAO</t>
+          <t>ALGORITMOS EM GRAFOS</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SISTEMAS DIGITAIS</t>
+          <t>COMPILADORES E INTERPRETADORES</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>NATUREZA DA INFORMACAO</t>
+          <t>ALGORITMOS EM GRAFOS</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SISTEMAS OPERACIONAIS</t>
+          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
         </is>
       </c>
     </row>
@@ -1605,91 +1605,91 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FUNCOES DE UMA VARIAVEL</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>FUNCOES DE UMA VARIAVEL</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
           <t>ALGORITMOS EM GRAFOS</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>MATEMATICA DISCRETA I</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ALGORITMOS EM GRAFOS</t>
+          <t>FUNCOES DE UMA VARIAVEL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MATEMATICA DISCRETA II</t>
+          <t>ANALISE DE ALGORITMOS I</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ALGORITMOS EM GRAFOS</t>
+          <t>FUNCOES DE UMA VARIAVEL</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS I</t>
+          <t>ANALISE DE ALGORITMOS II</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ALGORITMOS EM GRAFOS</t>
+          <t>FUNCOES DE UMA VARIAVEL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS II</t>
+          <t>CALCULO NUMERICO</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ALGORITMOS EM GRAFOS</t>
+          <t>FUNCOES DE UMA VARIAVEL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>COMPILADORES E INTERPRETADORES</t>
+          <t>CINETICA QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ALGORITMOS EM GRAFOS</t>
+          <t>FUNCOES DE UMA VARIAVEL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
+          <t>COMPILADORES E INTERPRETADORES</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ALGORITMOS EM GRAFOS</t>
+          <t>FUNCOES DE UMA VARIAVEL</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>ELETROQUIMICA</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS I</t>
+          <t>ENGENHARIA ECONOMICA</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS II</t>
+          <t>ESTRUTURA DA MATERIA AVANCADA</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CALCULO NUMERICO</t>
+          <t>FENOMENOS ELETROMAGNETICOS</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CINETICA QUIMICA</t>
+          <t>FENOMENOS MECANICOS</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>COMPILADORES E INTERPRETADORES</t>
+          <t>FENOMENOS TERMICOS</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ELETROQUIMICA</t>
+          <t>FISICO-QUIMICA EXPERIMENTAL</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ENGENHARIA ECONOMICA</t>
+          <t>FUNCOES DE VARIAS VARIAVEIS</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA AVANCADA</t>
+          <t>INTRODUCAO A PROBABILIDADE E A ESTATISTICA</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FENOMENOS ELETROMAGNETICOS</t>
+          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FENOMENOS MECANICOS</t>
+          <t>MATEMATICA DISCRETA</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FENOMENOS TERMICOS</t>
+          <t>MATEMATICA DISCRETA II</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FISICO-QUIMICA EXPERIMENTAL</t>
+          <t>MECANICA DOS FLUIDOS I</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>BASES MATEMATICAS</t>
+          <t>MECANICA DOS SOLIDOS I</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FUNCOES DE VARIAS VARIAVEIS</t>
+          <t>NUMEROS REAIS E SEQUENCIAS</t>
         </is>
       </c>
     </row>
@@ -1869,139 +1869,139 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>INTRODUCAO A PROBABILIDADE E A ESTATISTICA</t>
+          <t>TERMODINAMICA QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>FUNCOES DE UMA VARIAVEL</t>
+          <t>MATEMATICA DISCRETA I</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
+          <t>ALGORITMOS EM GRAFOS</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>FUNCOES DE UMA VARIAVEL</t>
+          <t>MATEMATICA DISCRETA I</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MATEMATICA DISCRETA II</t>
+          <t>ANALISE DE ALGORITMOS I</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>FUNCOES DE UMA VARIAVEL</t>
+          <t>MATEMATICA DISCRETA I</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MECANICA DOS FLUIDOS I</t>
+          <t>ANALISE DE ALGORITMOS II</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>FUNCOES DE UMA VARIAVEL</t>
+          <t>MATEMATICA DISCRETA I</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MECANICA DOS SOLIDOS I</t>
+          <t>COMPILADORES E INTERPRETADORES</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>FUNCOES DE UMA VARIAVEL</t>
+          <t>MATEMATICA DISCRETA I</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NUMEROS REAIS E SEQUENCIAS</t>
+          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>FUNCOES DE UMA VARIAVEL</t>
+          <t>MATEMATICA DISCRETA I</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TERMODINAMICA QUIMICA</t>
+          <t>MATEMATICA DISCRETA II</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MATEMATICA DISCRETA I</t>
+          <t>MATEMATICA DISCRETA II</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS I</t>
+          <t>ALGORITMOS EM GRAFOS</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MATEMATICA DISCRETA I</t>
+          <t>MATEMATICA DISCRETA II</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS II</t>
+          <t>ANALISE DE ALGORITMOS I</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MATEMATICA DISCRETA I</t>
+          <t>MATEMATICA DISCRETA II</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>COMPILADORES E INTERPRETADORES</t>
+          <t>ANALISE DE ALGORITMOS II</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MATEMATICA DISCRETA I</t>
+          <t>MATEMATICA DISCRETA II</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
+          <t>COMPILADORES E INTERPRETADORES</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MATEMATICA DISCRETA I</t>
+          <t>MATEMATICA DISCRETA II</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MATEMATICA DISCRETA II</t>
+          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
         </is>
       </c>
     </row>
@@ -2013,14 +2013,14 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS I</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MATEMATICA DISCRETA II</t>
+          <t>ANALISE DE ALGORITMOS I</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MATEMATICA DISCRETA II</t>
+          <t>ANALISE DE ALGORITMOS I</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MATEMATICA DISCRETA II</t>
+          <t>ANALISE DE ALGORITMOS I</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MATEMATICA DISCRETA II</t>
+          <t>ANALISE DE ALGORITMOS I</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,84 +2068,84 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS I</t>
+          <t>ANALISE DE ALGORITMOS II</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS II</t>
+          <t>COMPILADORES E INTERPRETADORES</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS I</t>
+          <t>ANALISE DE ALGORITMOS II</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>COMPILADORES E INTERPRETADORES</t>
+          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS I</t>
+          <t>ANALISE DE ALGORITMOS II</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS I</t>
+          <t>FUNCOES DE VARIAS VARIAVEIS</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>ANALISE DE FOURIER E APLICACOES</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS II</t>
+          <t>FUNCOES DE VARIAS VARIAVEIS</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>COMPILADORES E INTERPRETADORES</t>
+          <t>CALCULO DE PROBABILIDADE</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS II</t>
+          <t>FUNCOES DE VARIAS VARIAVEIS</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
+          <t>CALCULO VETORIAL E TENSORIAL</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ANALISE DE ALGORITMOS II</t>
+          <t>FUNCOES DE VARIAS VARIAVEIS</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>ESTRUTURA DA MATERIA AVANCADA</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ANALISE DE FOURIER E APLICACOES</t>
+          <t>FENOMENOS ELETROMAGNETICOS</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CALCULO DE PROBABILIDADE</t>
+          <t>FISICA EXPERIMENTAL I</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CALCULO VETORIAL E TENSORIAL</t>
+          <t>INTRODUCAO AS EQUACOES DIFERENCIAIS ORDINARIAS</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA AVANCADA</t>
+          <t>MECANICA CLASSICA I</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FENOMENOS ELETROMAGNETICOS</t>
+          <t>MECANICA DOS FLUIDOS I</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FISICA EXPERIMENTAL I</t>
+          <t>MECANICA DOS SOLIDOS I</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>INTRODUCAO AS EQUACOES DIFERENCIAIS ORDINARIAS</t>
+          <t>MECANICA QUANTICA I</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MECANICA CLASSICA I</t>
+          <t>OPTICA E RELATIVIDADE</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MECANICA DOS FLUIDOS I</t>
+          <t>OTIMIZACAO LINEAR</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MECANICA DOS SOLIDOS I</t>
+          <t>PRINCIPIOS DE TERMODINAMICA</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MECANICA QUANTICA I</t>
+          <t>TRANSFORMADAS EM SINAIS E SISTEMAS LINEARES</t>
         </is>
       </c>
     </row>
@@ -2289,410 +2289,410 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>OPTICA E RELATIVIDADE</t>
+          <t>VARIAVEIS COMPLEXAS E APLICACOES</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>FUNCOES DE VARIAS VARIAVEIS</t>
+          <t>ANALISE DE FOURIER E APLICACOES</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>OTIMIZACAO LINEAR</t>
+          <t>FISICA EXPERIMENTAL IV</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>FUNCOES DE VARIAS VARIAVEIS</t>
+          <t>VARIAVEIS COMPLEXAS E APLICACOES</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE TERMODINAMICA</t>
+          <t>ANALISE DE FOURIER E APLICACOES</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>FUNCOES DE VARIAS VARIAVEIS</t>
+          <t>VARIAVEIS COMPLEXAS E APLICACOES</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRANSFORMADAS EM SINAIS E SISTEMAS LINEARES</t>
+          <t>FISICA EXPERIMENTAL IV</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>FUNCOES DE VARIAS VARIAVEIS</t>
+          <t>CALCULO DE PROBABILIDADE</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>VARIAVEIS COMPLEXAS E APLICACOES</t>
+          <t>ANALISE DE REGRESSAO</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ANALISE DE FOURIER E APLICACOES</t>
+          <t>CALCULO DE PROBABILIDADE</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>VARIAVEIS COMPLEXAS E APLICACOES</t>
+          <t>PROBABILIDADE</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ANALISE DE FOURIER E APLICACOES</t>
+          <t>INTRODUCAO A INFERENCIA ESTATISTICA</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FISICA EXPERIMENTAL IV</t>
+          <t>ANALISE DE REGRESSAO</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>VARIAVEIS COMPLEXAS E APLICACOES</t>
+          <t>ANALISE NO RN I</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FISICA EXPERIMENTAL IV</t>
+          <t>ANALISE NO RN II</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ANALISE DE REGRESSAO</t>
+          <t>ANALISE NO RN I</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CALCULO DE PROBABILIDADE</t>
+          <t>EQUACOES DIFERENCIAIS ORDINARIAS</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ANALISE DE REGRESSAO</t>
+          <t>ANALISE NO RN I</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>INTRODUCAO A INFERENCIA ESTATISTICA</t>
+          <t>EQUACOES DIFERENCIAIS PARCIAIS</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CALCULO DE PROBABILIDADE</t>
+          <t>ANALISE NO RN I</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>INTRODUCAO A PROBABILIDADE E A ESTATISTICA</t>
+          <t>GEOMETRIA DIFERENCIAL</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>CALCULO DE PROBABILIDADE</t>
+          <t>ANALISE REAL I</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PROBABILIDADE</t>
+          <t>ANALISE NO RN I</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ANALISE NO RN I</t>
+          <t>ANALISE REAL I</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ANALISE REAL I</t>
+          <t>ANALISE REAL II</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ANALISE NO RN I</t>
+          <t>ANALISE REAL I</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ANALISE NO RN II</t>
+          <t>GEOMETRIA DOS ESPACOS METRICOS</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ANALISE NO RN I</t>
+          <t>ANALISE REAL I</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>EQUACOES DIFERENCIAIS ORDINARIAS</t>
+          <t>TOPOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ANALISE NO RN I</t>
+          <t>ANALISE REAL II</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>EQUACOES DIFERENCIAIS PARCIAIS</t>
+          <t>ANALISE NO RN II</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ANALISE NO RN I</t>
+          <t>ANALISE REAL II</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>GEOMETRIA DIFERENCIAL</t>
+          <t>APROXIMACAO TEORICA E NUMERICA I</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ANALISE REAL I</t>
+          <t>ANALISE REAL II</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>INTRODUCAO AS EQUACOES DIFERENCIAIS ORDINARIAS</t>
+          <t>EQUACOES DIFERENCIAIS PARCIAIS</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ANALISE REAL I</t>
+          <t>ANALISE REAL II</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NUMEROS REAIS E SEQUENCIAS</t>
+          <t>TEORIA DA MEDIDA E INTEGRACAO</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>INTRODUCAO AS EQUACOES DIFERENCIAIS ORDINARIAS</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
           <t>ANALISE REAL I</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>ANALISE REAL II</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ANALISE REAL I</t>
+          <t>INTRODUCAO AS EQUACOES DIFERENCIAIS ORDINARIAS</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>GEOMETRIA DOS ESPACOS METRICOS</t>
+          <t>FENOMENOS ELETROMAGNETICOS</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ANALISE REAL I</t>
+          <t>INTRODUCAO AS EQUACOES DIFERENCIAIS ORDINARIAS</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TOPOLOGIA</t>
+          <t>INSTRUMENTACAO E CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ANALISE NO RN II</t>
+          <t>INTRODUCAO AS EQUACOES DIFERENCIAIS ORDINARIAS</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ANALISE REAL II</t>
+          <t>METODOS EXPERIMENTAIS EM ENGENHARIA</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ANALISE REAL II</t>
+          <t>INTRODUCAO AS EQUACOES DIFERENCIAIS ORDINARIAS</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>APROXIMACAO TEORICA E NUMERICA I</t>
+          <t>NEUROCIENCIA TEORICA E COMPUTACIONAL</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ANALISE REAL II</t>
+          <t>NUMEROS REAIS E SEQUENCIAS</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>EQUACOES DIFERENCIAIS PARCIAIS</t>
+          <t>ANALISE REAL I</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ANALISE REAL II</t>
+          <t>SISTEMAS DIGITAIS</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TEORIA DA MEDIDA E INTEGRACAO</t>
+          <t>ARQUITETURA DE COMPUTADORES</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>INTRODUCAO AS EQUACOES DIFERENCIAIS ORDINARIAS</t>
+          <t>SISTEMAS DIGITAIS</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FENOMENOS ELETROMAGNETICOS</t>
+          <t>SISTEMAS DISTRIBUIDOS</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>INTRODUCAO AS EQUACOES DIFERENCIAIS ORDINARIAS</t>
+          <t>SISTEMAS DIGITAIS</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>INSTRUMENTACAO E CONTROLE</t>
+          <t>SISTEMAS OPERACIONAIS</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>INTRODUCAO AS EQUACOES DIFERENCIAIS ORDINARIAS</t>
+          <t>SISTEMAS DIGITAIS</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>METODOS EXPERIMENTAIS EM ENGENHARIA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>INTRODUCAO AS EQUACOES DIFERENCIAIS ORDINARIAS</t>
+          <t>ARQUITETURA DE COMPUTADORES</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NEUROCIENCIA TEORICA E COMPUTACIONAL</t>
+          <t>SISTEMAS DISTRIBUIDOS</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SISTEMAS DIGITAIS</t>
+          <t>ARQUITETURA DE COMPUTADORES</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ARQUITETURA DE COMPUTADORES</t>
+          <t>SISTEMAS OPERACIONAIS</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SISTEMAS DIGITAIS</t>
+          <t>ARQUITETURA DE COMPUTADORES</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CIRCUITOS DIGITAIS</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SISTEMAS DIGITAIS</t>
+          <t>CIRCUITOS DIGITAIS</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FENOMENOS ELETROMAGNETICOS</t>
+          <t>ARQUITETURA DE COMPUTADORES</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>CIRCUITOS DIGITAIS</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
           <t>SISTEMAS DIGITAIS</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>SISTEMAS DISTRIBUIDOS</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SISTEMAS DIGITAIS</t>
+          <t>CIRCUITOS DIGITAIS</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SISTEMAS DIGITAIS</t>
+          <t>CIRCUITOS DIGITAIS</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2716,96 +2716,96 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
+          <t>FENOMENOS ELETROMAGNETICOS</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
           <t>ARQUITETURA DE COMPUTADORES</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>CIRCUITOS DIGITAIS</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ARQUITETURA DE COMPUTADORES</t>
+          <t>FENOMENOS ELETROMAGNETICOS</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FENOMENOS ELETROMAGNETICOS</t>
+          <t>CIRCUITOS DIGITAIS</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ARQUITETURA DE COMPUTADORES</t>
+          <t>FENOMENOS ELETROMAGNETICOS</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SISTEMAS DISTRIBUIDOS</t>
+          <t>CIRCUITOS ELETRICOS E FOTONICA</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ARQUITETURA DE COMPUTADORES</t>
+          <t>FENOMENOS ELETROMAGNETICOS</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SISTEMAS OPERACIONAIS</t>
+          <t>CIRCUITOS ELETRICOS I</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ARQUITETURA DE COMPUTADORES</t>
+          <t>FENOMENOS ELETROMAGNETICOS</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>ELETROMAGNETISMO I</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>CIRCUITOS DIGITAIS</t>
+          <t>FENOMENOS ELETROMAGNETICOS</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FENOMENOS ELETROMAGNETICOS</t>
+          <t>ESTRUTURA DA MATERIA AVANCADA</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CIRCUITOS DIGITAIS</t>
+          <t>FENOMENOS ELETROMAGNETICOS</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SISTEMAS OPERACIONAIS</t>
+          <t>FISICA EXPERIMENTAL II</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>CIRCUITOS DIGITAIS</t>
+          <t>FENOMENOS ELETROMAGNETICOS</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>FISICA QUANTICA</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CIRCUITOS ELETRICOS E FOTONICA</t>
+          <t>SISTEMAS DIGITAIS</t>
         </is>
       </c>
     </row>
@@ -2829,115 +2829,115 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>CIRCUITOS ELETRICOS I</t>
+          <t>SISTEMAS OPERACIONAIS</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>FENOMENOS ELETROMAGNETICOS</t>
+          <t>COMPUTACAO CIENTIFICA APLICADA A PROBLEMAS BIOLOGICOS</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ELETROMAGNETISMO I</t>
+          <t>BIOESTATISTICA</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>FENOMENOS ELETROMAGNETICOS</t>
+          <t>BIOESTATISTICA</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA AVANCADA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>FENOMENOS ELETROMAGNETICOS</t>
+          <t>INTRODUCAO A NEUROCIENCIA</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>BASES MATEMATICAS</t>
+          <t>BIOFISICA DE MEMBRANAS</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>FENOMENOS ELETROMAGNETICOS</t>
+          <t>INTRODUCAO A NEUROCIENCIA</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FENOMENOS MECANICOS</t>
+          <t>NEUROANATOMIA</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>FENOMENOS ELETROMAGNETICOS</t>
+          <t>INTRODUCAO A NEUROCIENCIA</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FISICA EXPERIMENTAL II</t>
+          <t>NEUROBIOLOGIA MOLECULAR E CELULAR</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>FENOMENOS ELETROMAGNETICOS</t>
+          <t>INTRODUCAO A NEUROCIENCIA</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FISICA QUANTICA</t>
+          <t>NEUROCIENCIA TEORICA E COMPUTACIONAL</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>FENOMENOS ELETROMAGNETICOS</t>
+          <t>INTRODUCAO A NEUROCIENCIA</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>SISTEMAS OPERACIONAIS</t>
+          <t>NEUROETOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>COMPUTACAO CIENTIFICA APLICADA A PROBLEMAS BIOLOGICOS</t>
+          <t>INTRODUCAO A NEUROCIENCIA</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>BIOESTATISTICA</t>
+          <t>NEUROPSICOFARMACOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BIOESTATISTICA</t>
+          <t>INTRODUCAO A NEUROCIENCIA</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>PROCESSAMENTO DE SINAIS NEURAIS</t>
         </is>
       </c>
     </row>
@@ -2949,199 +2949,199 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>BIOFISICA DE MEMBRANAS</t>
+          <t>PROGRESSOS E METODOS EM NEUROCIENCIA</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>INTRODUCAO A NEUROCIENCIA</t>
+          <t>BIOFISICA DE MEMBRANAS</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NEUROANATOMIA</t>
+          <t>NEUROBIOLOGIA MOLECULAR E CELULAR</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>INTRODUCAO A NEUROCIENCIA</t>
+          <t>BIOFISICA DE MEMBRANAS</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NEUROBIOLOGIA MOLECULAR E CELULAR</t>
+          <t>NEUROCIENCIA TEORICA E COMPUTACIONAL</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>INTRODUCAO A NEUROCIENCIA</t>
+          <t>BIOFISICA DE MEMBRANAS</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NEUROCIENCIA TEORICA E COMPUTACIONAL</t>
+          <t>NEUROPSICOFARMACOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>INTRODUCAO A NEUROCIENCIA</t>
+          <t>EVOLUCAO E DIVERSIFICACAO DA VIDA NA TERRA</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NEUROETOLOGIA</t>
+          <t>BIOLOGIA CELULAR</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>INTRODUCAO A NEUROCIENCIA</t>
+          <t>EVOLUCAO E DIVERSIFICACAO DA VIDA NA TERRA</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NEUROPSICOFARMACOLOGIA</t>
+          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS I</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>INTRODUCAO A NEUROCIENCIA</t>
+          <t>EVOLUCAO E DIVERSIFICACAO DA VIDA NA TERRA</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>PROCESSAMENTO DE SINAIS NEURAIS</t>
+          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS II</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>INTRODUCAO A NEUROCIENCIA</t>
+          <t>EVOLUCAO E DIVERSIFICACAO DA VIDA NA TERRA</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>PROGRESSOS E METODOS EM NEUROCIENCIA</t>
+          <t>GEOLOGIA E PALEONTOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BIOFISICA DE MEMBRANAS</t>
+          <t>EVOLUCAO E DIVERSIFICACAO DA VIDA NA TERRA</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NEUROBIOLOGIA MOLECULAR E CELULAR</t>
+          <t>PROJETO DIRIGIDO</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BIOFISICA DE MEMBRANAS</t>
+          <t>EVOLUCAO E DIVERSIFICACAO DA VIDA NA TERRA</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>NEUROCIENCIA TEORICA E COMPUTACIONAL</t>
+          <t>SISTEMATICA E BIOGEOGRAFIA</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>BIOFISICA DE MEMBRANAS</t>
+          <t>BIOLOGIA CELULAR</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NEUROPSICOFARMACOLOGIA</t>
+          <t>BIOQUIMICA FUNCIONAL</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>EVOLUCAO E DIVERSIFICACAO DA VIDA NA TERRA</t>
+          <t>BIOLOGIA CELULAR</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>BIOLOGIA CELULAR</t>
+          <t>BIOTECNOLOGIA ANIMAL</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>EVOLUCAO E DIVERSIFICACAO DA VIDA NA TERRA</t>
+          <t>BIOLOGIA CELULAR</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS I</t>
+          <t>BIOTECNOLOGIA HUMANA</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>EVOLUCAO E DIVERSIFICACAO DA VIDA NA TERRA</t>
+          <t>BIOLOGIA CELULAR</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS II</t>
+          <t>ENZIMOLOGIA E BIOCATALISE</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>EVOLUCAO E DIVERSIFICACAO DA VIDA NA TERRA</t>
+          <t>BIOLOGIA CELULAR</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>GEOLOGIA E PALEONTOLOGIA</t>
+          <t>GENETICA I</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>EVOLUCAO E DIVERSIFICACAO DA VIDA NA TERRA</t>
+          <t>BIOLOGIA CELULAR</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PROJETO DIRIGIDO</t>
+          <t>GENETICA II</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>EVOLUCAO E DIVERSIFICACAO DA VIDA NA TERRA</t>
+          <t>BIOLOGIA CELULAR</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>SISTEMATICA E BIOGEOGRAFIA</t>
+          <t>GENOMICA E POS-GENOMICA</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>BIOQUIMICA FUNCIONAL</t>
+          <t>INTRODUCAO A BIOINFORMATICA</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>BIOTECNOLOGIA ANIMAL</t>
+          <t>LABORATORIO DE BIOPROCESSOS</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>BIOTECNOLOGIA HUMANA</t>
+          <t>MICROBIOLOGIA</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ENZIMOLOGIA E BIOCATALISE</t>
+          <t>NANOBIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>GENETICA I</t>
+          <t>PRINCIPIOS DE FISIOLOGIA PARA BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
@@ -3213,86 +3213,86 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>GENETICA II</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>BIOLOGIA CELULAR</t>
+          <t>GENETICA II</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>GENOMICA E POS-GENOMICA</t>
+          <t>BIOLOGIA SINTETICA</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>BIOLOGIA CELULAR</t>
+          <t>GENETICA II</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>INTRODUCAO A BIOINFORMATICA</t>
+          <t>BIOTECNOLOGIA VEGETAL</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>BIOLOGIA CELULAR</t>
+          <t>GENETICA II</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>LABORATORIO DE BIOPROCESSOS</t>
+          <t>ENZIMOLOGIA E BIOCATALISE</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>BIOLOGIA CELULAR</t>
+          <t>GENETICA II</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MICROBIOLOGIA</t>
+          <t>FISIOLOGIA VEGETAL II</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>BIOLOGIA CELULAR</t>
+          <t>GENETICA II</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NANOBIOTECNOLOGIA</t>
+          <t>LABORATORIO DE BIOPROCESSOS</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>BIOLOGIA CELULAR</t>
+          <t>GENETICA II</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FISIOLOGIA PARA BIOTECNOLOGIA</t>
+          <t>NANOBIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>BIOLOGIA CELULAR</t>
+          <t>GENETICA II</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -3304,216 +3304,216 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>GENETICA II</t>
+          <t>BIOLOGIA SINTETICA</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>BIOLOGIA SINTETICA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>GENETICA II</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>BIOTECNOLOGIA VEGETAL</t>
+          <t>BIOLOGIA SINTETICA</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>GENETICA II</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ENZIMOLOGIA E BIOCATALISE</t>
+          <t>BIOQUIMICA FUNCIONAL</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>GENETICA II</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>FISIOLOGIA VEGETAL II</t>
+          <t>FARMACOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>GENETICA II</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>GENETICA I</t>
+          <t>INTRODUCAO A BIOINFORMATICA</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>GENETICA II</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>LABORATORIO DE BIOPROCESSOS</t>
+          <t>PRINCIPIOS DE FISIOLOGIA PARA BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>GENETICA II</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NANOBIOTECNOLOGIA</t>
+          <t>PROJETO DIRIGIDO</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>GENETICA II</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>QUIMICA DE MACROMOLECULAS BIOLOGICAS</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>BIOLOGIA SINTETICA</t>
+          <t>TRANSFORMACOES QUIMICAS</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
+          <t>BIOQUIMICA FUNCIONAL</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>BIOLOGIA SINTETICA</t>
+          <t>TRANSFORMACOES QUIMICAS</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
+          <t>TRANSFORMACOES QUIMICAS</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>BIOQUIMICA FUNCIONAL</t>
+          <t>CINETICA QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
+          <t>TRANSFORMACOES QUIMICAS</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA</t>
+          <t>ELETROQUIMICA</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
+          <t>TRANSFORMACOES QUIMICAS</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TRANSFORMACOES QUIMICAS</t>
+          <t>ESTRUTURA DA MATERIA AVANCADA</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
+          <t>TRANSFORMACOES QUIMICAS</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FARMACOLOGIA</t>
+          <t>FISICO-QUIMICA EXPERIMENTAL</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
+          <t>TRANSFORMACOES QUIMICAS</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>INTRODUCAO A BIOINFORMATICA</t>
+          <t>FUNDAMENTOS DE QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
+          <t>TRANSFORMACOES QUIMICAS</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FISIOLOGIA PARA BIOTECNOLOGIA</t>
+          <t>FUNDAMENTOS DE REACOES ORGANICAS</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
+          <t>TRANSFORMACOES QUIMICAS</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>PROJETO DIRIGIDO</t>
+          <t>LIGACOES QUIMICAS</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
+          <t>TRANSFORMACOES QUIMICAS</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>QUIMICA DE MACROMOLECULAS BIOLOGICAS</t>
+          <t>MECANISMOS DE REACOES ORGANICAS</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>BIOQUIMICA FUNCIONAL</t>
+          <t>PRINCIPIOS DE FISIOLOGIA PARA BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>CINETICA QUIMICA</t>
+          <t>PROJETO DIRIGIDO</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ELETROQUIMICA</t>
+          <t>QUIMICA ANALITICA CLASSICA I</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA AVANCADA</t>
+          <t>QUIMICA DE COORDENACAO</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>FISICO-QUIMICA EXPERIMENTAL</t>
+          <t>QUIMICA DE MACROMOLECULAS BIOLOGICAS</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE QUIMICA</t>
+          <t>QUIMICA DOS ELEMENTOS</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE REACOES ORGANICAS</t>
+          <t>QUIMICA ORGANICA EXPERIMENTAL</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>LIGACOES QUIMICAS</t>
+          <t>TERMODINAMICA QUIMICA</t>
         </is>
       </c>
     </row>
@@ -3621,151 +3621,151 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MECANISMOS DE REACOES ORGANICAS</t>
+          <t>TOPICOS ESPECIAIS EM QUIMICA ORGANICA</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>TRANSFORMACOES QUIMICAS</t>
+          <t>BIOQUIMICA FUNCIONAL</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FISIOLOGIA PARA BIOTECNOLOGIA</t>
+          <t>MICROBIOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>TRANSFORMACOES QUIMICAS</t>
+          <t>BIOQUIMICA FUNCIONAL</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>PROJETO DIRIGIDO</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>TRANSFORMACOES QUIMICAS</t>
+          <t>ESTRUTURA DA MATERIA</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>QUIMICA ANALITICA CLASSICA I</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADE E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>TRANSFORMACOES QUIMICAS</t>
+          <t>ESTRUTURA DA MATERIA</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>QUIMICA DE COORDENACAO</t>
+          <t>FENOMENOS TERMICOS</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>TRANSFORMACOES QUIMICAS</t>
+          <t>ESTRUTURA DA MATERIA</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>QUIMICA DE MACROMOLECULAS BIOLOGICAS</t>
+          <t>FISICA QUANTICA</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>TRANSFORMACOES QUIMICAS</t>
+          <t>ESTRUTURA DA MATERIA</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>QUIMICA DOS ELEMENTOS</t>
+          <t>FUNDAMENTOS DE QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>TRANSFORMACOES QUIMICAS</t>
+          <t>ESTRUTURA DA MATERIA</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>QUIMICA ORGANICA EXPERIMENTAL</t>
+          <t>FUNDAMENTOS DE REACOES ORGANICAS</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>TRANSFORMACOES QUIMICAS</t>
+          <t>ESTRUTURA DA MATERIA</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TERMODINAMICA QUIMICA</t>
+          <t>LIGACOES QUIMICAS</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>TRANSFORMACOES QUIMICAS</t>
+          <t>ESTRUTURA DA MATERIA</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>TOPICOS ESPECIAIS EM QUIMICA ORGANICA</t>
+          <t>PROJETO DIRIGIDO</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>TRANSFORMACOES QUIMICAS</t>
+          <t>ESTRUTURA DA MATERIA</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA</t>
+          <t>QUIMICA ANALITICA CLASSICA I</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>BIOQUIMICA FUNCIONAL</t>
+          <t>ESTRUTURA DA MATERIA</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>MICROBIOLOGIA</t>
+          <t>QUIMICA DE COORDENACAO</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>BIOQUIMICA FUNCIONAL</t>
+          <t>ESTRUTURA DA MATERIA</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>QUIMICA DOS ELEMENTOS</t>
         </is>
       </c>
     </row>
@@ -3777,103 +3777,103 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>FENOMENOS TERMICOS</t>
+          <t>TRANSFORMACOES QUIMICAS</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA</t>
+          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>FISICA QUANTICA</t>
+          <t>BIOTECNOLOGIA ANIMAL</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA</t>
+          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE QUIMICA</t>
+          <t>BIOTECNOLOGIA HUMANA</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA</t>
+          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE REACOES ORGANICAS</t>
+          <t>ENGENHARIA METABOLICA</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA</t>
+          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>LIGACOES QUIMICAS</t>
+          <t>ENZIMOLOGIA E BIOCATALISE</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA</t>
+          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>PROJETO DIRIGIDO</t>
+          <t>GENOMICA E POS-GENOMICA</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA</t>
+          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>QUIMICA ANALITICA CLASSICA I</t>
+          <t>LABORATORIO DE BIOPROCESSOS</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA</t>
+          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>QUIMICA DE COORDENACAO</t>
+          <t>NANOBIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA</t>
+          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>QUIMICA DOS ELEMENTOS</t>
+          <t>PROTEINAS RECOMBINANTES</t>
         </is>
       </c>
     </row>
@@ -3885,1197 +3885,1197 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>BIOTECNOLOGIA ANIMAL</t>
+          <t>SEGURANCA E REGULAMENTACAO EM BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
+          <t>BIOTECNOLOGIA ANIMAL</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>BIOTECNOLOGIA HUMANA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
+          <t>BIOTECNOLOGIA HUMANA</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ENGENHARIA METABOLICA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
+          <t>GENETICA I</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ENZIMOLOGIA E BIOCATALISE</t>
+          <t>BIOTECNOLOGIA VEGETAL</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
+          <t>GENETICA I</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>GENOMICA E POS-GENOMICA</t>
+          <t>GENETICA II</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
+          <t>GENETICA I</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>LABORATORIO DE BIOPROCESSOS</t>
+          <t>PRINCIPIOS DE FISIOLOGIA PARA BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
+          <t>GENETICA I</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NANOBIOTECNOLOGIA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
+          <t>BIOTECNOLOGIA VEGETAL</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>PROTEINAS RECOMBINANTES</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
+          <t>FISIOLOGIA VEGETAL I</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>SEGURANCA E REGULAMENTACAO EM BIOTECNOLOGIA</t>
+          <t>BIOTECNOLOGIA VEGETAL</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>BIOTECNOLOGIA ANIMAL</t>
+          <t>FISIOLOGIA VEGETAL I</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>FISIOLOGIA VEGETAL II</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>BIOTECNOLOGIA HUMANA</t>
+          <t>FISIOLOGIA VEGETAL II</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>BIOTECNOLOGIA VEGETAL</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>GENETICA I</t>
+          <t>INTRODUCAO A PROBABILIDADE E A ESTATISTICA</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>BIOTECNOLOGIA VEGETAL</t>
+          <t>CALCULO DE PROBABILIDADE</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>GENETICA I</t>
+          <t>INTRODUCAO A PROBABILIDADE E A ESTATISTICA</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FISIOLOGIA PARA BIOTECNOLOGIA</t>
+          <t>METODOS EXPERIMENTAIS EM ENGENHARIA</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>GENETICA I</t>
+          <t>CALCULO VETORIAL E TENSORIAL</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>ELETROMAGNETISMO I</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>BIOTECNOLOGIA VEGETAL</t>
+          <t>CINETICA QUIMICA</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>FISIOLOGIA VEGETAL I</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>BIOTECNOLOGIA VEGETAL</t>
+          <t>PRINCIPIOS DE TERMODINAMICA</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>FISIOLOGIA VEGETAL II</t>
+          <t>CINETICA QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>BIOTECNOLOGIA VEGETAL</t>
+          <t>PRINCIPIOS DE TERMODINAMICA</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>ELETROQUIMICA</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>FISIOLOGIA VEGETAL I</t>
+          <t>PRINCIPIOS DE TERMODINAMICA</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS II</t>
+          <t>FISICO-QUIMICA EXPERIMENTAL</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>FISIOLOGIA VEGETAL I</t>
+          <t>PRINCIPIOS DE TERMODINAMICA</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>FISIOLOGIA VEGETAL II</t>
+          <t>TERMODINAMICA QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>FISIOLOGIA VEGETAL II</t>
+          <t>PRINCIPIOS DE TERMODINAMICA</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS II</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>INTRODUCAO A PROBABILIDADE E A ESTATISTICA</t>
+          <t>CIRCUITOS ELETRICOS E FOTONICA</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>METODOS EXPERIMENTAIS EM ENGENHARIA</t>
+          <t>ELETRONICA DIGITAL</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>CALCULO VETORIAL E TENSORIAL</t>
+          <t>CIRCUITOS ELETRICOS E FOTONICA</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>ELETROMAGNETISMO I</t>
+          <t>INSTRUMENTACAO E CONTROLE</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>CINETICA QUIMICA</t>
+          <t>CIRCUITOS ELETRICOS I</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE TERMODINAMICA</t>
+          <t>CIRCUITOS ELETRICOS II</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>CINETICA QUIMICA</t>
+          <t>CIRCUITOS ELETRICOS I</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+          <t>DISPOSITIVOS ELETRONICOS</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE TERMODINAMICA</t>
+          <t>CIRCUITOS ELETRICOS I</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>ELETROQUIMICA</t>
+          <t>ELETRONICA DIGITAL</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE TERMODINAMICA</t>
+          <t>CIRCUITOS ELETRICOS II</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>FISICO-QUIMICA EXPERIMENTAL</t>
+          <t>MAQUINAS ELETRICAS</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE TERMODINAMICA</t>
+          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>FENOMENOS TERMICOS</t>
+          <t>COMPILADORES E INTERPRETADORES</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE TERMODINAMICA</t>
+          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TERMODINAMICA QUIMICA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE TERMODINAMICA</t>
+          <t>COMPILADORES E INTERPRETADORES</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>CIRCUITOS ELETRICOS E FOTONICA</t>
+          <t>COMPUTACAO GRAFICA</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>ELETRONICA DIGITAL</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>CIRCUITOS ELETRICOS E FOTONICA</t>
+          <t>PROGRAMACAO ORIENTADA A OBJETOS</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>INSTRUMENTACAO E CONTROLE</t>
+          <t>COMPUTACAO GRAFICA</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>CIRCUITOS ELETRICOS I</t>
+          <t>PROGRAMACAO ORIENTADA A OBJETOS</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>CIRCUITOS ELETRICOS II</t>
+          <t>ENGENHARIA DE SOFTWARE</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>CIRCUITOS ELETRICOS I</t>
+          <t>PROGRAMACAO ORIENTADA A OBJETOS</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>DISPOSITIVOS ELETRONICOS</t>
+          <t>MODELAGEM DE BANCO DE DADOS</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>CIRCUITOS ELETRICOS I</t>
+          <t>PROGRAMACAO ORIENTADA A OBJETOS</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>ELETRONICA DIGITAL</t>
+          <t>SISTEMAS DISTRIBUIDOS</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>CIRCUITOS ELETRICOS II</t>
+          <t>PROGRAMACAO ORIENTADA A OBJETOS</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>MAQUINAS ELETRICAS</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
+          <t>BASES EPISTEMOLOGICAS DA CIENCIA MODERNA</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>COMPILADORES E INTERPRETADORES</t>
+          <t>COMUNICACAO CIENTIFICA</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>LINGUAGENS FORMAIS E AUTOMATOS</t>
+          <t>BASES EPISTEMOLOGICAS DA CIENCIA MODERNA</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>PSICOLOGIA COGNITIVA</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>COMPILADORES E INTERPRETADORES</t>
+          <t>DISPOSITIVOS ELETRONICOS</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>ELETRONICA ANALOGICA APLICADA</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>COMPUTACAO GRAFICA</t>
+          <t>DISPOSITIVOS ELETRONICOS</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>PROGRAMACAO ORIENTADA A OBJETOS</t>
+          <t>SISTEMAS 
+MICROPROCESSADOS</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>COMPUTACAO GRAFICA</t>
+          <t>BIODIVERSIDADE: INTERACOES ENTRE ORGANISMOS E AMBIENTE</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>ECOLOGIA COMPORTAMENTAL</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>PROGRAMACAO ORIENTADA A OBJETOS</t>
+          <t>BIODIVERSIDADE: INTERACOES ENTRE ORGANISMOS E AMBIENTE</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>ENGENHARIA DE SOFTWARE</t>
+          <t>MICROBIOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>PROGRAMACAO ORIENTADA A OBJETOS</t>
+          <t>BIODIVERSIDADE: INTERACOES ENTRE ORGANISMOS E AMBIENTE</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>MODELAGEM DE BANCO DE DADOS</t>
+          <t>PRATICAS DE ECOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>PROGRAMACAO ORIENTADA A OBJETOS</t>
+          <t>BIODIVERSIDADE: INTERACOES ENTRE ORGANISMOS E AMBIENTE</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>SISTEMAS DISTRIBUIDOS</t>
+          <t>PROJETO DIRIGIDO</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>PROGRAMACAO ORIENTADA A OBJETOS</t>
+          <t>PRATICAS DE ECOLOGIA</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>ECOLOGIA VEGETAL</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>BASES EPISTEMOLOGICAS DA CIENCIA MODERNA</t>
+          <t>QUIMICA ANALITICA CLASSICA I</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>COMUNICACAO CIENTIFICA</t>
+          <t>ELETROANALITICA E INSTRUMENTACAO EM QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>BASES EPISTEMOLOGICAS DA CIENCIA MODERNA</t>
+          <t>QUIMICA ANALITICA CLASSICA I</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>PSICOLOGIA COGNITIVA</t>
+          <t>ESPECTROANALITICA MOLECULAR E ATOMICA</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>DISPOSITIVOS ELETRONICOS</t>
+          <t>QUIMICA ANALITICA CLASSICA I</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>ELETRONICA ANALOGICA APLICADA</t>
+          <t>QUIMICA ANALITICA CLASSICA II</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>DISPOSITIVOS ELETRONICOS</t>
+          <t>QUIMICA ANALITICA CLASSICA I</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
+        <is>
+          <t>QUIMICA DE MACROMOLECULAS BIOLOGICAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>QUIMICA ANALITICA CLASSICA I</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>TECNICAS ANALITICAS DE SEPARACAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>QUIMICA ANALITICA CLASSICA I</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>ELETROANALITICA E INSTRUMENTACAO EM QUIMICA</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>QUIMICA ANALITICA CLASSICA II</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>ELETROANALITICA E INSTRUMENTACAO EM QUIMICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>QUIMICA ANALITICA CLASSICA II</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>ESPECTROANALITICA MOLECULAR E ATOMICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>QUIMICA ANALITICA CLASSICA II</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>QUIMICA DE MACROMOLECULAS BIOLOGICAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>QUIMICA ANALITICA CLASSICA II</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>TECNICAS ANALITICAS DE SEPARACAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>QUIMICA ANALITICA CLASSICA II</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>ESPECTROANALITICA MOLECULAR E ATOMICA</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>ELETROANALITICA E INSTRUMENTACAO EM QUIMICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>ESPECTROANALITICA MOLECULAR E ATOMICA</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>TECNICAS ANALITICAS DE SEPARACAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>ELETROQUIMICA</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>ELETROANALITICA E INSTRUMENTACAO EM QUIMICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>ELETROQUIMICA</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>ELETROMAGNETISMO I</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>FISICA EXPERIMENTAL IV</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>ELETRONICA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
         <is>
           <t>SISTEMAS 
 MICROPROCESSADOS</t>
         </is>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>BIODIVERSIDADE: INTERACOES ENTRE ORGANISMOS E AMBIENTE</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>ECOLOGIA COMPORTAMENTAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>BIODIVERSIDADE: INTERACOES ENTRE ORGANISMOS E AMBIENTE</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>MICROBIOLOGIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>BIODIVERSIDADE: INTERACOES ENTRE ORGANISMOS E AMBIENTE</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>PRATICAS DE ECOLOGIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>BIODIVERSIDADE: INTERACOES ENTRE ORGANISMOS E AMBIENTE</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>PROJETO DIRIGIDO</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>PRATICAS DE ECOLOGIA</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>ECOLOGIA VEGETAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>QUIMICA ANALITICA CLASSICA I</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>ELETROANALITICA E INSTRUMENTACAO EM QUIMICA</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>QUIMICA ANALITICA CLASSICA I</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>ESPECTROANALITICA MOLECULAR E ATOMICA</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>QUIMICA ANALITICA CLASSICA I</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>QUIMICA ANALITICA CLASSICA II</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>QUIMICA ANALITICA CLASSICA I</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>QUIMICA DE MACROMOLECULAS BIOLOGICAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>QUIMICA ANALITICA CLASSICA I</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>TECNICAS ANALITICAS DE SEPARACAO</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>QUIMICA ANALITICA CLASSICA I</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>ELETROANALITICA E INSTRUMENTACAO EM QUIMICA</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>QUIMICA ANALITICA CLASSICA II</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>ELETROANALITICA E INSTRUMENTACAO EM QUIMICA</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>ESPECTROANALITICA MOLECULAR E ATOMICA</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>ELETROANALITICA E INSTRUMENTACAO EM QUIMICA</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>ELETROQUIMICA</t>
-        </is>
-      </c>
-    </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ELETROANALITICA E INSTRUMENTACAO EM QUIMICA</t>
+          <t>INTRODUCAO A BIOTECNOLOGIA</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+          <t>EMPREENDEDORISMO E PLANEJAMENTO DE PROJETOS EM BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>QUIMICA ANALITICA CLASSICA II</t>
+          <t>EMPREENDEDORISMO E PLANEJAMENTO DE PROJETOS EM BIOTECNOLOGIA</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>ESPECTROANALITICA MOLECULAR E ATOMICA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>QUIMICA ANALITICA CLASSICA II</t>
+          <t>ENGENHARIA DE SOFTWARE</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>QUIMICA DE MACROMOLECULAS BIOLOGICAS</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>QUIMICA ANALITICA CLASSICA II</t>
+          <t>ENGENHARIA METABOLICA</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>TECNICAS ANALITICAS DE SEPARACAO</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>QUIMICA ANALITICA CLASSICA II</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADES E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+          <t>ENGENHARIA METABOLICA</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ESPECTROANALITICA MOLECULAR E ATOMICA</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADES E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>TECNICAS ANALITICAS DE SEPARACAO</t>
+          <t>ENZIMOLOGIA E BIOCATALISE</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ELETROQUIMICA</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADES E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+          <t>LABORATORIO DE BIOPROCESSOS</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ELETROMAGNETISMO I</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADES E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>FISICA EXPERIMENTAL IV</t>
+          <t>NANOBIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ELETRONICA DIGITAL</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADES E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>SISTEMAS 
-MICROPROCESSADOS</t>
+          <t>PROTEINAS RECOMBINANTES</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>INTRODUCAO A BIOTECNOLOGIA</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADES E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>EMPREENDEDORISMO E PLANEJAMENTO DE PROJETOS EM BIOTECNOLOGIA</t>
+          <t>SEGURANCA E REGULAMENTACAO EM BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>EMPREENDEDORISMO E PLANEJAMENTO DE PROJETOS EM BIOTECNOLOGIA</t>
+          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADES E FUNCOES DE BIOMOLECULAS</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>TECNOLOGIA DE FERMENTACOES</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ENGENHARIA DE SOFTWARE</t>
+          <t>ENZIMOLOGIA E BIOCATALISE</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ENGENHARIA METABOLICA</t>
+          <t>FARMACOLOGIA</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADES E FUNCOES DE BIOMOLECULAS</t>
+          <t>ENZIMOLOGIA E BIOCATALISE</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ENGENHARIA METABOLICA</t>
+          <t>FARMACOLOGIA</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>LABORATORIO DE BIOPROCESSOS</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADES E FUNCOES DE BIOMOLECULAS</t>
+          <t>FARMACOLOGIA</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>ENZIMOLOGIA E BIOCATALISE</t>
+          <t>NANOBIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADES E FUNCOES DE BIOMOLECULAS</t>
+          <t>FARMACOLOGIA</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>LABORATORIO DE BIOPROCESSOS</t>
+          <t>SEGURANCA E REGULAMENTACAO EM BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADES E FUNCOES DE BIOMOLECULAS</t>
+          <t>FARMACOLOGIA</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>NANOBIOTECNOLOGIA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADES E FUNCOES DE BIOMOLECULAS</t>
+          <t>ESTRUTURA DA MATERIA AVANCADA</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>PROTEINAS RECOMBINANTES</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADES E FUNCOES DE BIOMOLECULAS</t>
+          <t>FUNDAMENTOS DE QUIMICA</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SEGURANCA E REGULAMENTACAO EM BIOTECNOLOGIA</t>
+          <t>ESTRUTURA DA MATERIA AVANCADA</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>BIOQUIMICA: ESTRUTURA, PROPRIEDADES E FUNCOES DE BIOMOLECULAS</t>
+          <t>FUNDAMENTOS DE QUIMICA</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>TECNOLOGIA DE FERMENTACOES</t>
+          <t>LIGACOES QUIMICAS</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ENZIMOLOGIA E BIOCATALISE</t>
+          <t>FUNDAMENTOS DE QUIMICA</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>FARMACOLOGIA</t>
+          <t>QUIMICA DE COORDENACAO</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ENZIMOLOGIA E BIOCATALISE</t>
+          <t>FUNDAMENTOS DE QUIMICA</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>QUIMICA DOS ELEMENTOS</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>FARMACOLOGIA</t>
+          <t>FUNDAMENTOS DE QUIMICA</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>LABORATORIO DE BIOPROCESSOS</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>FARMACOLOGIA</t>
+          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS I</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>NANOBIOTECNOLOGIA</t>
+          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS II</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>FARMACOLOGIA</t>
+          <t>SISTEMATICA E BIOGEOGRAFIA</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>SEGURANCA E REGULAMENTACAO EM BIOTECNOLOGIA</t>
+          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS I</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>FARMACOLOGIA</t>
+          <t>SISTEMATICA E BIOGEOGRAFIA</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS II</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA AVANCADA</t>
+          <t>SISTEMATICA E BIOGEOGRAFIA</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE QUIMICA</t>
+          <t>ZOOLOGIA DE ECDYSOZOA</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ESTRUTURA DA MATERIA AVANCADA</t>
+          <t>SISTEMATICA E BIOGEOGRAFIA</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+          <t>ZOOLOGIA DE VERTEBRADOS</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE QUIMICA</t>
+          <t>SISTEMATICA E BIOGEOGRAFIA</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>LIGACOES QUIMICAS</t>
+          <t>ZOOLOGIA: ORIGEM E DIVERSIFICACAO DE METAZOA</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE QUIMICA</t>
+          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS II</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>QUIMICA DE COORDENACAO</t>
+          <t>FISIOLOGIA VEGETAL I</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE QUIMICA</t>
+          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS II</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>QUIMICA DOS ELEMENTOS</t>
+          <t>FISIOLOGIA VEGETAL II</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE QUIMICA</t>
+          <t>FENOMENOS TERMICOS</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+          <t>FENOMENOS DE TRANSPORTE</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS I</t>
+          <t>FENOMENOS TERMICOS</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>SISTEMATICA E BIOGEOGRAFIA</t>
+          <t>FISICA EXPERIMENTAL I</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS I</t>
+          <t>FENOMENOS TERMICOS</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS II</t>
+          <t>FISICA QUANTICA</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>SISTEMATICA E BIOGEOGRAFIA</t>
+          <t>FENOMENOS TERMICOS</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>EVOLUCAO E DIVERSIDADE DE PLANTAS II</t>
+          <t>MECANICA DOS FLUIDOS I</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>SISTEMATICA E BIOGEOGRAFIA</t>
+          <t>FENOMENOS TERMICOS</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>ZOOLOGIA DE ECDYSOZOA</t>
+          <t>MECANICA DOS SOLIDOS I</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SISTEMATICA E BIOGEOGRAFIA</t>
+          <t>FENOMENOS TERMICOS</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>ZOOLOGIA DE VERTEBRADOS</t>
+          <t>PRINCIPIOS DE TERMODINAMICA</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>SISTEMATICA E BIOGEOGRAFIA</t>
+          <t>FENOMENOS TERMICOS</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>ZOOLOGIA: ORIGEM E DIVERSIFICACAO DE METAZOA</t>
+          <t>TERMODINAMICA APLICADA I</t>
         </is>
       </c>
     </row>
@@ -5087,115 +5087,115 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>FENOMENOS DE TRANSPORTE</t>
+          <t>TERMODINAMICA QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>FENOMENOS TERMICOS</t>
+          <t>BASES MATEMATICAS</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>FENOMENOS MECANICOS</t>
+          <t>FENOMENOS ELETROMAGNETICOS</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>FENOMENOS TERMICOS</t>
+          <t>BASES MATEMATICAS</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>FISICA EXPERIMENTAL I</t>
+          <t>FENOMENOS MECANICOS</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>FENOMENOS TERMICOS</t>
+          <t>BASES MATEMATICAS</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>FISICA QUANTICA</t>
+          <t>FUNCOES DE UMA VARIAVEL</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>FENOMENOS TERMICOS</t>
+          <t>BASES MATEMATICAS</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MECANICA DOS FLUIDOS I</t>
+          <t>GEOMETRIA ANALITICA</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>FENOMENOS TERMICOS</t>
+          <t>BASES MATEMATICAS</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>MECANICA DOS SOLIDOS I</t>
+          <t>PROJETO DIRIGIDO</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>FENOMENOS TERMICOS</t>
+          <t>FENOMENOS MECANICOS</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>TERMODINAMICA APLICADA I</t>
+          <t>FENOMENOS ELETROMAGNETICOS</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
+          <t>FENOMENOS MECANICOS</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
           <t>FENOMENOS TERMICOS</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>TERMODINAMICA QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>BASES MATEMATICAS</t>
+          <t>FENOMENOS MECANICOS</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>FENOMENOS MECANICOS</t>
+          <t>FISICA EXPERIMENTAL I</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>BASES MATEMATICAS</t>
+          <t>FENOMENOS MECANICOS</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>PROJETO DIRIGIDO</t>
+          <t>FISICA QUANTICA</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>FISICA EXPERIMENTAL I</t>
+          <t>MECANICA CLASSICA I</t>
         </is>
       </c>
     </row>
@@ -5219,50 +5219,50 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>FISICA QUANTICA</t>
+          <t>OPTICA E RELATIVIDADE</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>FENOMENOS MECANICOS</t>
+          <t>FISICA EXPERIMENTAL I</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>MECANICA CLASSICA I</t>
+          <t>FISICA EXPERIMENTAL II</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>FENOMENOS MECANICOS</t>
+          <t>FISICA EXPERIMENTAL II</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>OPTICA E RELATIVIDADE</t>
+          <t>FISICA EXPERIMENTAL III</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>FISICA EXPERIMENTAL I</t>
+          <t>FISICA EXPERIMENTAL III</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>FISICA EXPERIMENTAL II</t>
+          <t>FISICA EXPERIMENTAL IV</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>FISICA EXPERIMENTAL II</t>
+          <t>FISICA QUANTICA</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -5274,31 +5274,31 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>FISICA EXPERIMENTAL III</t>
+          <t>FISICA QUANTICA</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>FISICA QUANTICA</t>
+          <t>MECANICA QUANTICA I</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
+          <t>OPTICA E RELATIVIDADE</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
           <t>FISICA EXPERIMENTAL III</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>OPTICA E RELATIVIDADE</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>FISICA EXPERIMENTAL III</t>
+          <t>OPTICA E RELATIVIDADE</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -5310,91 +5310,91 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>FISICA QUANTICA</t>
+          <t>MECANICA QUANTICA I</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>MECANICA QUANTICA I</t>
+          <t>FISICA EXPERIMENTAL IV</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>OPTICA E RELATIVIDADE</t>
+          <t>MECANICA QUANTICA I</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>FISICA EXPERIMENTAL IV</t>
+          <t>MECANICA QUANTICA II</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>FISICA EXPERIMENTAL IV</t>
+          <t>FISICO-QUIMICA EXPERIMENTAL</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>MECANICA QUANTICA I</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>MECANICA QUANTICA I</t>
+          <t>TERMODINAMICA QUIMICA</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>INTRODUCAO AS EQUACOES DIFERENCIAIS</t>
+          <t>FISICO-QUIMICA EXPERIMENTAL</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>MECANICA QUANTICA I</t>
+          <t>TERMODINAMICA QUIMICA</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>MECANICA QUANTICA II</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>FISICO-QUIMICA EXPERIMENTAL</t>
+          <t>FUNDAMENTOS DE REACOES ORGANICAS</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TERMODINAMICA QUIMICA</t>
+          <t>MECANISMOS DE REACOES ORGANICAS</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>FISICO-QUIMICA EXPERIMENTAL</t>
+          <t>FUNDAMENTOS DE REACOES ORGANICAS</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+          <t>QUIMICA ORGANICA EXPERIMENTAL</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>TERMODINAMICA QUIMICA</t>
+          <t>FUNDAMENTOS DE REACOES ORGANICAS</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -5406,43 +5406,43 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE REACOES ORGANICAS</t>
+          <t>GENOMICA E POS-GENOMICA</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>MECANISMOS DE REACOES ORGANICAS</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE REACOES ORGANICAS</t>
+          <t>INTELIGENCIA ARTIFICIAL</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>QUIMICA ORGANICA EXPERIMENTAL</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE REACOES ORGANICAS</t>
+          <t>INTERACAO HUMANO-COMPUTADOR</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>GENOMICA E POS-GENOMICA</t>
+          <t>INTRODUCAO A BIOINFORMATICA</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -5454,31 +5454,31 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>INTELIGENCIA ARTIFICIAL</t>
+          <t>LABORATORIO DE BIOPROCESSOS</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>INTERACAO HUMANO-COMPUTADOR</t>
+          <t>PROTEINAS RECOMBINANTES</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>LABORATORIO DE BIOPROCESSOS</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>INTRODUCAO A BIOINFORMATICA</t>
+          <t>PROTEINAS RECOMBINANTES</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -5490,127 +5490,127 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>LABORATORIO DE BIOPROCESSOS</t>
+          <t>MAQUINAS ELETRICAS</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>PROTEINAS RECOMBINANTES</t>
+          <t>LABORATORIO DE MAQUINAS ELETRICAS</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>LABORATORIO DE BIOPROCESSOS</t>
+          <t>LIGACOES QUIMICAS</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>QUIMICA DE COORDENACAO</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>PROTEINAS RECOMBINANTES</t>
+          <t>LIGACOES QUIMICAS</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>MICROBIOLOGIA</t>
+          <t>QUIMICA DOS ELEMENTOS</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>PROTEINAS RECOMBINANTES</t>
+          <t>LIGACOES QUIMICAS</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>MAQUINAS ELETRICAS</t>
+          <t>INTRODUCAO AS EQUACOES DIFERENCIAIS</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>LABORATORIO DE MAQUINAS ELETRICAS</t>
+          <t>MECANICA QUANTICA I</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>LIGACOES QUIMICAS</t>
+          <t>MECANISMOS DE REACOES ORGANICAS</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>QUIMICA DE COORDENACAO</t>
+          <t>METODOS DE ANALISE EM QUIMICA ORGANICA</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>LIGACOES QUIMICAS</t>
+          <t>MECANISMOS DE REACOES ORGANICAS</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>QUIMICA DOS ELEMENTOS</t>
+          <t>TOPICOS ESPECIAIS EM QUIMICA ORGANICA</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>LIGACOES QUIMICAS</t>
+          <t>FUNCOES E REACOES ORGANICAS</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+          <t>METODOS DE ANALISE EM QUIMICA ORGANICA</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>MECANISMOS DE REACOES ORGANICAS</t>
+          <t>METODOS DE ANALISE EM QUIMICA ORGANICA</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>METODOS DE ANALISE EM QUIMICA ORGANICA</t>
+          <t>QUIMICA ORGANICA EXPERIMENTAL</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>MECANISMOS DE REACOES ORGANICAS</t>
+          <t>METODOS DE ANALISE EM QUIMICA ORGANICA</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>TOPICOS ESPECIAIS EM QUIMICA ORGANICA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>FUNCOES E REACOES ORGANICAS</t>
+          <t>QUIMICA ORGANICA EXPERIMENTAL</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -5622,60 +5622,60 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>METODOS DE ANALISE EM QUIMICA ORGANICA</t>
+          <t>QUIMICA ORGANICA EXPERIMENTAL</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>QUIMICA ORGANICA EXPERIMENTAL</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>METODOS DE ANALISE EM QUIMICA ORGANICA</t>
+          <t>MICROBIOLOGIA</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+          <t>PROTEINAS RECOMBINANTES</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>QUIMICA ORGANICA EXPERIMENTAL</t>
+          <t>MICROBIOLOGIA</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>MICROBIOLOGIA</t>
+          <t>MODELAGEM DE BANCO DE DADOS</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>MODELAGEM DE BANCO DE DADOS</t>
+          <t>ZOOLOGIA DE INVERTEBRADOS I</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>MORFOFISIOLOGIA ANIMAL COMPARADA</t>
         </is>
       </c>
     </row>
@@ -5687,67 +5687,67 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>MORFOFISIOLOGIA ANIMAL COMPARADA</t>
+          <t>ZOOLOGIA DE ECDYSOZOA</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ZOOLOGIA DE INVERTEBRADOS I</t>
+          <t>ZOOLOGIA DE VERTEBRADOS</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>ZOOLOGIA DE ECDYSOZOA</t>
+          <t>MORFOFISIOLOGIA ANIMAL COMPARADA</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
+          <t>EVOLUCAO</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
           <t>MORFOFISIOLOGIA ANIMAL COMPARADA</t>
-        </is>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>ZOOLOGIA DE VERTEBRADOS</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>MORFOFISIOLOGIA ANIMAL COMPARADA</t>
+          <t>NANOBIOTECNOLOGIA</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>EVOLUCAO</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ZOOLOGIA DE VERTEBRADOS</t>
+          <t>BASES COMPUTACIONAIS DA CIENCIA</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>ZOOLOGIA DE ECDYSOZOA</t>
+          <t>NATUREZA DA INFORMACAO</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>NANOBIOTECNOLOGIA</t>
+          <t>BASES COMPUTACIONAIS DA CIENCIA</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>PROCESSAMENTO DA INFORMACAO</t>
         </is>
       </c>
     </row>
@@ -5826,120 +5826,120 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
+          <t>NEUROPSICOFARMACOLOGIA</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
           <t>NEUROETOLOGIA</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>NEUROPSICOFARMACOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
+          <t>PSICOLOGIA EXPERIMENTAL</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
           <t>NEUROETOLOGIA</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>PSICOLOGIA EXPERIMENTAL</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>PSICOLOGIA EXPERIMENTAL</t>
+          <t>PRINCIPIOS DE FISIOLOGIA PARA BIOTECNOLOGIA</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>PSICOLOGIA COGNITIVA</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>PSICOLOGIA EXPERIMENTAL</t>
+          <t>TEORIA DA MEDIDA E INTEGRACAO</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>BASE EXPERIMENTAL DAS CIENCIAS NATURAIS</t>
+          <t>PROBABILIDADE</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FISIOLOGIA PARA BIOTECNOLOGIA</t>
+          <t>TRANSFORMADAS EM SINAIS E SISTEMAS LINEARES</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
+          <t>PROCESSAMENTO DIGITAL DE SINAIS</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>PROBABILIDADE</t>
+          <t>TRANSFORMADAS EM SINAIS E SISTEMAS LINEARES</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>TEORIA DA MEDIDA E INTEGRACAO</t>
+          <t>SISTEMAS DE CONTROLE I</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>TRANSFORMADAS EM SINAIS E SISTEMAS LINEARES</t>
+          <t>PROGRAMACAO FUNCIONAL</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>PROCESSAMENTO DIGITAL DE SINAIS</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>TRANSFORMADAS EM SINAIS E SISTEMAS LINEARES</t>
+          <t>BASE EXPERIMENTAL DAS CIENCIAS NATURAIS</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>SISTEMAS DE CONTROLE I</t>
+          <t>PROJETO DIRIGIDO</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>PROGRAMACAO FUNCIONAL</t>
+          <t>BASE EXPERIMENTAL DAS CIENCIAS NATURAIS</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
+          <t>PSICOLOGIA EXPERIMENTAL</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>PROJETO DIRIGIDO</t>
+          <t>PSICOLOGIA COGNITIVA</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>BASE EXPERIMENTAL DAS CIENCIAS NATURAIS</t>
+          <t>PSICOLOGIA EXPERIMENTAL</t>
         </is>
       </c>
     </row>
@@ -5951,19 +5951,19 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>QUIMICA DOS ELEMENTOS</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
+          <t>QUIMICA DOS ELEMENTOS</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
           <t>QUIMICA DE COORDENACAO</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
         </is>
       </c>
     </row>
@@ -6071,19 +6071,19 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>SISTEMAS OPERACIONAIS</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
+          <t>SISTEMAS OPERACIONAIS</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
           <t>SISTEMAS DISTRIBUIDOS</t>
-        </is>
-      </c>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
@@ -6102,24 +6102,24 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
+          <t>COMPUTADORES, ETICA E SOCIEDADE</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
           <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>COMPUTADORES, ETICA E SOCIEDADE</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
+          <t>METODOLOGIA E ESCRITA CIENTIFICA PARA CIENCIA DA COMPUTACAO</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
           <t>TRABALHO DE CONCLUSAO DE CURSO EM CIENCIA DA COMPUTACAO</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>METODOLOGIA E ESCRITA CIENTIFICA PARA CIENCIA DA COMPUTACAO</t>
         </is>
       </c>
     </row>
@@ -6186,12 +6186,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
+          <t>TEORIA DE GRUPOS</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
           <t>TEORIA DE CORPOS</t>
-        </is>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>TEORIA DE GRUPOS</t>
         </is>
       </c>
     </row>
@@ -6203,19 +6203,19 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS EM REACOES ORGANICAS</t>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
+          <t>FUNDAMENTOS EM REACOES ORGANICAS</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
           <t>TOPICOS ESPECIAIS EM QUIMICA ORGANICA</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
         </is>
       </c>
     </row>
@@ -6234,38 +6234,50 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
+          <t>FUNDAMENTOS DA BIOTECNOLOGIA</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
           <t>TRABALHO DE CONCLUSAO DE CURSO DE BIOTECNOLOGIA</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>FUNDAMENTOS DA BIOTECNOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
-        </is>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
           <t>ESPECTROANALITICA MOLECULAR E
 ATOMICA</t>
         </is>
       </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
           <t>MECANISMOS DE REACOES
 ORGANICAS</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>TRABALHO DE CONCLUSAO DE CURSO EM QUIMICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>ZOOLOGIA DE ECDYSOZOA</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>ZOOLOGIA DE VERTEBRADOS</t>
         </is>
       </c>
     </row>
